--- a/Proyectos/2015/Métricas y monitoreo/Acciones_correctivas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Acciones_correctivas_2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -77,19 +77,21 @@
     <t>Agregar ventas realzadas en meses anteriores para tener un historial completo</t>
   </si>
   <si>
-    <t>Abierto</t>
+    <t>Desviación en área de ventas,costos y esfuerzo</t>
+  </si>
+  <si>
+    <t>Se decide esperar hasta dentro de 3 meses mínimo para poder decidir si se requiere realizar acciones correctivas debido a que es una implementación nueva al proceso y no se puede tomar correcciones con resultados tan espontaneos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,13 +113,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -171,7 +166,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,13 +190,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -212,56 +200,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Moneda 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -363,8 +349,8 @@
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -538,23 +524,39 @@
       <c r="G6" s="10" t="n">
         <v>42352</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10" t="n">
+        <v>42352</v>
+      </c>
       <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>42350</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>42350</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>42350</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>

--- a/Proyectos/2015/Métricas y monitoreo/Acciones_correctivas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Acciones_correctivas_2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Se decide esperar hasta dentro de 3 meses mínimo para poder decidir si se requiere realizar acciones correctivas debido a que es una implementación nueva al proceso y no se puede tomar correcciones con resultados tan espontaneos</t>
+  </si>
+  <si>
+    <t>Tiempo sobre elevados en actividades y nulos en otras</t>
+  </si>
+  <si>
+    <t>Hablar sobre poner omentarios de tiempo real en caso de olvidar detener el tracking</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Multiples proyectos sin hito de cierre</t>
+  </si>
+  <si>
+    <t>Hacer el hito de cierre con una enuesta de satisfaccion</t>
   </si>
 </sst>
 </file>
@@ -349,8 +364,8 @@
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -558,31 +573,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>42377</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>42685</v>
+      </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>42377</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>42685</v>
+      </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>

--- a/Proyectos/2015/Métricas y monitoreo/Acciones_correctivas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Acciones_correctivas_2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Hablar sobre poner omentarios de tiempo real en caso de olvidar detener el tracking</t>
-  </si>
-  <si>
-    <t>Abierto</t>
   </si>
   <si>
     <t>Multiples proyectos sin hito de cierre</t>
@@ -365,7 +362,7 @@
   <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -591,11 +588,13 @@
         <v>10</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>42685</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>42380</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>42381</v>
+      </c>
       <c r="I8" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>42377</v>
@@ -616,11 +615,13 @@
         <v>10</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>42685</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>42380</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>42381</v>
+      </c>
       <c r="I9" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
